--- a/backtesting/gld_gdx_algo/gdx2.xlsx
+++ b/backtesting/gld_gdx_algo/gdx2.xlsx
@@ -467,7 +467,7 @@
         <v>33.63999938964844</v>
       </c>
       <c r="F3">
-        <v>32.51160430908203</v>
+        <v>32.51160049438477</v>
       </c>
       <c r="G3">
         <v>15484500</v>
@@ -513,7 +513,7 @@
         <v>33.95999908447266</v>
       </c>
       <c r="F5">
-        <v>32.82086563110352</v>
+        <v>32.82086944580078</v>
       </c>
       <c r="G5">
         <v>12172200</v>
@@ -559,7 +559,7 @@
         <v>34.52000045776367</v>
       </c>
       <c r="F7">
-        <v>33.36208343505859</v>
+        <v>33.36208724975586</v>
       </c>
       <c r="G7">
         <v>19947100</v>
@@ -766,7 +766,7 @@
         <v>33.18999862670898</v>
       </c>
       <c r="F16">
-        <v>32.07669448852539</v>
+        <v>32.07669830322266</v>
       </c>
       <c r="G16">
         <v>29921500</v>
@@ -812,7 +812,7 @@
         <v>33.61999893188477</v>
       </c>
       <c r="F18">
-        <v>32.49227142333984</v>
+        <v>32.49227523803711</v>
       </c>
       <c r="G18">
         <v>15417900</v>
@@ -858,7 +858,7 @@
         <v>33.15000152587891</v>
       </c>
       <c r="F20">
-        <v>32.03804397583008</v>
+        <v>32.03804016113281</v>
       </c>
       <c r="G20">
         <v>12587700</v>
@@ -927,7 +927,7 @@
         <v>34.18999862670898</v>
       </c>
       <c r="F23">
-        <v>33.04315185546875</v>
+        <v>33.04315567016602</v>
       </c>
       <c r="G23">
         <v>16424400</v>
@@ -950,7 +950,7 @@
         <v>35.06999969482422</v>
       </c>
       <c r="F24">
-        <v>33.89363861083984</v>
+        <v>33.89363479614258</v>
       </c>
       <c r="G24">
         <v>29054900</v>
@@ -973,7 +973,7 @@
         <v>34.91999816894531</v>
       </c>
       <c r="F25">
-        <v>33.74866485595703</v>
+        <v>33.7486686706543</v>
       </c>
       <c r="G25">
         <v>12405300</v>
@@ -1019,7 +1019,7 @@
         <v>35.09000015258789</v>
       </c>
       <c r="F27">
-        <v>33.9129638671875</v>
+        <v>33.91296768188477</v>
       </c>
       <c r="G27">
         <v>11237300</v>
@@ -1088,7 +1088,7 @@
         <v>33.2400016784668</v>
       </c>
       <c r="F30">
-        <v>32.12502288818359</v>
+        <v>32.12501907348633</v>
       </c>
       <c r="G30">
         <v>34008700</v>
@@ -1249,7 +1249,7 @@
         <v>32.25</v>
       </c>
       <c r="F37">
-        <v>31.16822814941406</v>
+        <v>31.1682300567627</v>
       </c>
       <c r="G37">
         <v>20321200</v>
@@ -1456,7 +1456,7 @@
         <v>32.16999816894531</v>
       </c>
       <c r="F46">
-        <v>31.09090995788574</v>
+        <v>31.09091186523438</v>
       </c>
       <c r="G46">
         <v>17423200</v>
@@ -1479,7 +1479,7 @@
         <v>32.59999847412109</v>
       </c>
       <c r="F47">
-        <v>31.50648498535156</v>
+        <v>31.50648880004883</v>
       </c>
       <c r="G47">
         <v>23492700</v>
@@ -1571,7 +1571,7 @@
         <v>32.34999847412109</v>
       </c>
       <c r="F51">
-        <v>31.26487159729004</v>
+        <v>31.26487350463867</v>
       </c>
       <c r="G51">
         <v>23521600</v>
@@ -1686,7 +1686,7 @@
         <v>32.27000045776367</v>
       </c>
       <c r="F56">
-        <v>31.18755722045898</v>
+        <v>31.18755912780762</v>
       </c>
       <c r="G56">
         <v>17580100</v>
@@ -1824,7 +1824,7 @@
         <v>30.5</v>
       </c>
       <c r="F62">
-        <v>29.47693061828613</v>
+        <v>29.4769287109375</v>
       </c>
       <c r="G62">
         <v>26826400</v>
@@ -1939,7 +1939,7 @@
         <v>28.90999984741211</v>
       </c>
       <c r="F67">
-        <v>27.94026184082031</v>
+        <v>27.94026374816895</v>
       </c>
       <c r="G67">
         <v>34065800</v>
@@ -1962,7 +1962,7 @@
         <v>29.46999931335449</v>
       </c>
       <c r="F68">
-        <v>28.48147773742676</v>
+        <v>28.48147964477539</v>
       </c>
       <c r="G68">
         <v>29802700</v>
@@ -1985,7 +1985,7 @@
         <v>29.32999992370605</v>
       </c>
       <c r="F69">
-        <v>28.34617614746094</v>
+        <v>28.3461742401123</v>
       </c>
       <c r="G69">
         <v>20670200</v>
@@ -2031,7 +2031,7 @@
         <v>29.78000068664551</v>
       </c>
       <c r="F71">
-        <v>28.78108024597168</v>
+        <v>28.78108215332031</v>
       </c>
       <c r="G71">
         <v>21309600</v>
@@ -2100,7 +2100,7 @@
         <v>30.67000007629395</v>
       </c>
       <c r="F74">
-        <v>29.64122772216797</v>
+        <v>29.64122581481934</v>
       </c>
       <c r="G74">
         <v>28715200</v>
@@ -2169,7 +2169,7 @@
         <v>32.15000152587891</v>
       </c>
       <c r="F77">
-        <v>31.07158279418945</v>
+        <v>31.07158470153809</v>
       </c>
       <c r="G77">
         <v>36491500</v>
@@ -2284,7 +2284,7 @@
         <v>32.86000061035156</v>
       </c>
       <c r="F82">
-        <v>31.75776863098145</v>
+        <v>31.75776672363281</v>
       </c>
       <c r="G82">
         <v>15369500</v>
@@ -2307,7 +2307,7 @@
         <v>32.72999954223633</v>
       </c>
       <c r="F83">
-        <v>31.63212776184082</v>
+        <v>31.63212966918945</v>
       </c>
       <c r="G83">
         <v>13482600</v>
@@ -2399,7 +2399,7 @@
         <v>33.09999847412109</v>
       </c>
       <c r="F87">
-        <v>31.98971557617188</v>
+        <v>31.98971366882324</v>
       </c>
       <c r="G87">
         <v>14192900</v>
@@ -2468,7 +2468,7 @@
         <v>31.86000061035156</v>
       </c>
       <c r="F90">
-        <v>30.79130935668945</v>
+        <v>30.79131126403809</v>
       </c>
       <c r="G90">
         <v>13055100</v>
@@ -2491,7 +2491,7 @@
         <v>31.53000068664551</v>
       </c>
       <c r="F91">
-        <v>30.47238159179688</v>
+        <v>30.47237968444824</v>
       </c>
       <c r="G91">
         <v>13406500</v>
@@ -2514,7 +2514,7 @@
         <v>31.86000061035156</v>
       </c>
       <c r="F92">
-        <v>30.79130935668945</v>
+        <v>30.79131126403809</v>
       </c>
       <c r="G92">
         <v>19631400</v>
@@ -2537,7 +2537,7 @@
         <v>31.75</v>
       </c>
       <c r="F93">
-        <v>30.68500137329102</v>
+        <v>30.68499946594238</v>
       </c>
       <c r="G93">
         <v>20728600</v>
@@ -2560,7 +2560,7 @@
         <v>32.75</v>
       </c>
       <c r="F94">
-        <v>31.65145874023438</v>
+        <v>31.65145683288574</v>
       </c>
       <c r="G94">
         <v>23291800</v>
@@ -2606,7 +2606,7 @@
         <v>33.31999969482422</v>
       </c>
       <c r="F96">
-        <v>32.20233917236328</v>
+        <v>32.20233535766602</v>
       </c>
       <c r="G96">
         <v>15970100</v>
@@ -2629,7 +2629,7 @@
         <v>33.90999984741211</v>
       </c>
       <c r="F97">
-        <v>32.77254867553711</v>
+        <v>32.77254486083984</v>
       </c>
       <c r="G97">
         <v>41093000</v>
@@ -2652,7 +2652,7 @@
         <v>34.70000076293945</v>
       </c>
       <c r="F98">
-        <v>33.53604507446289</v>
+        <v>33.53604888916016</v>
       </c>
       <c r="G98">
         <v>25332800</v>
@@ -2767,7 +2767,7 @@
         <v>34.2400016784668</v>
       </c>
       <c r="F103">
-        <v>33.09148025512695</v>
+        <v>33.09147644042969</v>
       </c>
       <c r="G103">
         <v>16487300</v>
@@ -2790,7 +2790,7 @@
         <v>33.66999816894531</v>
       </c>
       <c r="F104">
-        <v>32.54059600830078</v>
+        <v>32.54059219360352</v>
       </c>
       <c r="G104">
         <v>22133100</v>
@@ -2813,7 +2813,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>31.89307022094727</v>
+        <v>31.8930721282959</v>
       </c>
       <c r="G105">
         <v>29994000</v>
@@ -2859,7 +2859,7 @@
         <v>32.41999816894531</v>
       </c>
       <c r="F107">
-        <v>31.3325252532959</v>
+        <v>31.33252334594727</v>
       </c>
       <c r="G107">
         <v>13253000</v>
@@ -3181,7 +3181,7 @@
         <v>29.70000076293945</v>
       </c>
       <c r="F121">
-        <v>28.70376396179199</v>
+        <v>28.70376586914062</v>
       </c>
       <c r="G121">
         <v>34443000</v>
@@ -3204,7 +3204,7 @@
         <v>31.19000053405762</v>
       </c>
       <c r="F122">
-        <v>30.14378356933594</v>
+        <v>30.14378547668457</v>
       </c>
       <c r="G122">
         <v>38341100</v>
@@ -8727,7 +8727,7 @@
         <v>28.56650924682617</v>
       </c>
       <c r="G362">
-        <v>36813400</v>
+        <v>36827500</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -8773,7 +8773,7 @@
         <v>29.42203140258789</v>
       </c>
       <c r="G364">
-        <v>35806100</v>
+        <v>35815500</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -8888,7 +8888,7 @@
         <v>28.58617782592773</v>
       </c>
       <c r="G369">
-        <v>24134400</v>
+        <v>24143000</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -9003,7 +9003,7 @@
         <v>28.12400054931641</v>
       </c>
       <c r="G374">
-        <v>23720900</v>
+        <v>23730900</v>
       </c>
     </row>
     <row r="375" spans="1:7">
